--- a/Data_Prueba.xlsx
+++ b/Data_Prueba.xlsx
@@ -151,7 +151,7 @@
     <t>CORTS VALENCIANES 16 6</t>
   </si>
   <si>
-    <t>LA VALL D`UIXO</t>
+    <t>LA VALL D'UIXO</t>
   </si>
 </sst>
 </file>
@@ -161,7 +161,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +178,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -215,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -223,6 +230,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,7 +599,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +666,7 @@
       <c r="E2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G2" s="3" t="s">

--- a/Data_Prueba.xlsx
+++ b/Data_Prueba.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\bot_cups\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -52,57 +57,72 @@
     <t>CUPS GAS</t>
   </si>
   <si>
+    <t>Vodafone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>29029731M</t>
+  </si>
+  <si>
+    <t>CORTS VALENCIANES 16 6</t>
+  </si>
+  <si>
+    <t>LA VALL D'UIXO</t>
+  </si>
+  <si>
+    <t>CASTELLON</t>
+  </si>
+  <si>
+    <t>Movistar</t>
+  </si>
+  <si>
+    <t>23207430Q</t>
+  </si>
+  <si>
+    <t>PANAMÁ 8 1</t>
+  </si>
+  <si>
+    <t>TOTANA</t>
+  </si>
+  <si>
+    <t>MURCIA</t>
+  </si>
+  <si>
     <t>Orange</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Vodafone</t>
-  </si>
-  <si>
-    <t>29029731M</t>
-  </si>
-  <si>
-    <t>CASTELLON</t>
+    <t>71640826N</t>
+  </si>
+  <si>
+    <t>ARKALE 2 3 B</t>
+  </si>
+  <si>
+    <t>IRUN</t>
+  </si>
+  <si>
+    <t>GIPUZKOA</t>
+  </si>
+  <si>
+    <t>30587969Q</t>
+  </si>
+  <si>
+    <t>SASIKOA 10 1 E</t>
+  </si>
+  <si>
+    <t>DURANGO</t>
   </si>
   <si>
     <t>VIZCAYA</t>
   </si>
   <si>
-    <t>Movistar</t>
-  </si>
-  <si>
-    <t>23207430Q</t>
-  </si>
-  <si>
-    <t>TOTANA</t>
-  </si>
-  <si>
-    <t>MURCIA</t>
-  </si>
-  <si>
-    <t>71640826N</t>
-  </si>
-  <si>
-    <t>ARKALE 2 3 B</t>
-  </si>
-  <si>
-    <t>IRUN</t>
-  </si>
-  <si>
-    <t>GIPUZKOA</t>
-  </si>
-  <si>
-    <t>30587969Q</t>
-  </si>
-  <si>
-    <t>DURANGO</t>
-  </si>
-  <si>
     <t>34904846T</t>
   </si>
   <si>
+    <t>DO PROGRESO 5 2 C</t>
+  </si>
+  <si>
     <t>OURENSE</t>
   </si>
   <si>
@@ -118,6 +138,9 @@
     <t>10595113W</t>
   </si>
   <si>
+    <t>SAMUEL SÁNCHEZ 6 4 IZQ</t>
+  </si>
+  <si>
     <t>OVIEDO</t>
   </si>
   <si>
@@ -127,31 +150,13 @@
     <t>80020085A</t>
   </si>
   <si>
+    <t>ANDALUCÍA 35 9 E</t>
+  </si>
+  <si>
     <t>VITORIA-GASTEIZ</t>
   </si>
   <si>
     <t>ALAVA</t>
-  </si>
-  <si>
-    <t>ANDALUCÍA 35 9 E</t>
-  </si>
-  <si>
-    <t>SAMUEL SÁNCHEZ 6 4 IZQ</t>
-  </si>
-  <si>
-    <t>DO PROGRESO 5 2 C</t>
-  </si>
-  <si>
-    <t>SASIKOA 10 1 E</t>
-  </si>
-  <si>
-    <t>PANAMÁ 8 1</t>
-  </si>
-  <si>
-    <t>CORTS VALENCIANES 16 6</t>
-  </si>
-  <si>
-    <t>LA VALL D'UIXO</t>
   </si>
 </sst>
 </file>
@@ -161,7 +166,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,13 +183,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -222,15 +220,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,19 +594,23 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -653,271 +652,265 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>615105930</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4">
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2">
         <v>12600</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>650097603</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="4">
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2">
         <v>30850</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>653438752</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="4">
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2">
         <v>20303</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>617994300</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="2">
         <v>48200</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>606978860</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2">
         <v>32005</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>606518473</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="2">
         <v>20004</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>679983653</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="G8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="2">
         <v>33013</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <v>679581805</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="4">
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="2">
         <v>1002</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A5">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>799999999</formula>
     </cfRule>
+    <cfRule type="duplicateValues" dxfId="4" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A7">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>799999999</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:A7">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>799999999</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A9">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A5">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>